--- a/v1.0_Combustion_Model/Validation.xlsx
+++ b/v1.0_Combustion_Model/Validation.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab0ee2475784414c/Masaüstü/GitHub/Virtual-Engine-Test-Bench/v1.0_Combustion_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05CF97A2-ED83-4777-A68E-B16145669982}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE579E2-11C9-4DFB-BC12-983CEBFE960F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -192,15 +193,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v0.5 Torque</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>v0.5</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -598,6 +591,9 @@
                 <c:pt idx="61" formatCode="0.0%">
                   <c:v>5.1731139552901262E-2</c:v>
                 </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>2.0874042796618891E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -612,15 +608,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v1.0 Torque </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>v1.0</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1018,6 +1006,9 @@
                 <c:pt idx="61" formatCode="0.0%">
                   <c:v>2.8927832752094991E-2</c:v>
                 </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>1.3526180502805242E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1025,6 +1016,43 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C5F-45C6-AF55-841E274120B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>v1.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E78-45A2-BB78-8C8BC009643D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2201,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,19 +2340,19 @@
         <v>31.942773731440099</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H62" si="0">ABS(F3-B3)/F3</f>
+        <f>ABS(F3-B3)/F3</f>
         <v>1.6695448242451904E-2</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I62" si="1">ABS(F3-D3)/F3</f>
+        <f>ABS(F3-D3)/F3</f>
         <v>2.6405615255604704E-2</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J62" si="2">ABS(G3-C3)/G3</f>
+        <f>ABS(G3-C3)/G3</f>
         <v>3.0605818769546902E-2</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K62" si="3">ABS(G3-E3)/G3</f>
+        <f>ABS(G3-E3)/G3</f>
         <v>3.3459014562287212E-2</v>
       </c>
     </row>
@@ -2351,19 +2379,19 @@
         <v>35.821313882078002</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F4-B4)/F4</f>
         <v>7.5708727001302088E-4</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F4-D4)/F4</f>
         <v>3.4444498421178603E-2</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G4-C4)/G4</f>
         <v>5.1925995382082354E-2</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G4-E4)/G4</f>
         <v>5.0174426543779758E-2</v>
       </c>
     </row>
@@ -2390,19 +2418,19 @@
         <v>38.945012165874502</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F5-B5)/F5</f>
         <v>1.5760225228879883E-2</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F5-D5)/F5</f>
         <v>4.0263254939573959E-2</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G5-C5)/G5</f>
         <v>5.0320410551310812E-2</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G5-E5)/G5</f>
         <v>4.3985405848082554E-2</v>
       </c>
     </row>
@@ -2429,19 +2457,19 @@
         <v>41.818004852007498</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F6-B6)/F6</f>
         <v>3.4566427741821969E-2</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F6-D6)/F6</f>
         <v>4.9938894264884071E-2</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G6-C6)/G6</f>
         <v>4.2596744750931961E-2</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G6-E6)/G6</f>
         <v>3.1541553851634214E-2</v>
       </c>
     </row>
@@ -2468,19 +2496,19 @@
         <v>47.562043800054497</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F7-B7)/F7</f>
         <v>4.2115838947298423E-2</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F7-D7)/F7</f>
         <v>4.8625724793426896E-2</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G7-C7)/G7</f>
         <v>9.3500605024000302E-2</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G7-E7)/G7</f>
         <v>7.8614027096333736E-2</v>
       </c>
     </row>
@@ -2507,19 +2535,19 @@
         <v>51.363503658334999</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F8-B8)/F8</f>
         <v>4.8735813606019009E-2</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F8-D8)/F8</f>
         <v>4.636578735400719E-2</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G8-C8)/G8</f>
         <v>0.10014767804929856</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G8-E8)/G8</f>
         <v>8.0942758227520908E-2</v>
       </c>
     </row>
@@ -2546,19 +2574,19 @@
         <v>54.516788329386401</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F9-B9)/F9</f>
         <v>5.6642807803107015E-2</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F9-D9)/F9</f>
         <v>4.5369761691847768E-2</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G9-C9)/G9</f>
         <v>9.4774604459847075E-2</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G9-E9)/G9</f>
         <v>7.0965081545366626E-2</v>
       </c>
     </row>
@@ -2585,19 +2613,19 @@
         <v>57.558780599889197</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F10-B10)/F10</f>
         <v>5.9620883917103705E-2</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F10-D10)/F10</f>
         <v>3.9328897760032816E-2</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G10-C10)/G10</f>
         <v>8.7790287996706226E-2</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G10-E10)/G10</f>
         <v>5.923997284778753E-2</v>
       </c>
     </row>
@@ -2624,19 +2652,19 @@
         <v>61.704660318040702</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F11-B11)/F11</f>
         <v>5.9989984214323597E-2</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F11-D11)/F11</f>
         <v>3.0475600594682954E-2</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G11-C11)/G11</f>
         <v>9.7537610138835079E-2</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G11-E11)/G11</f>
         <v>6.4754595478625138E-2</v>
       </c>
     </row>
@@ -2663,19 +2691,19 @@
         <v>66.341605852135601</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F12-B12)/F12</f>
         <v>6.105895355256323E-2</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F12-D12)/F12</f>
         <v>2.2183310700232911E-2</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G12-C12)/G12</f>
         <v>0.11230930954520836</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G12-E12)/G12</f>
         <v>7.5557499517088331E-2</v>
       </c>
     </row>
@@ -2702,19 +2730,19 @@
         <v>70.291970859041896</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F13-B13)/F13</f>
         <v>8.0473061109407315E-2</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F13-D13)/F13</f>
         <v>4.2729223226222919E-2</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G13-C13)/G13</f>
         <v>0.11162394069035129</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G13-E13)/G13</f>
         <v>7.5157529295002398E-2</v>
       </c>
     </row>
@@ -2741,19 +2769,19 @@
         <v>75.525210566991703</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F14-B14)/F14</f>
         <v>8.5935544457301241E-2</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F14-D14)/F14</f>
         <v>4.8758806831401325E-2</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G14-C14)/G14</f>
         <v>0.12529459601429657</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G14-E14)/G14</f>
         <v>8.9721174110214935E-2</v>
       </c>
     </row>
@@ -2780,19 +2808,19 @@
         <v>80.112408756573998</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F15-B15)/F15</f>
         <v>8.9086591468056406E-2</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F15-D15)/F15</f>
         <v>5.2400712500244376E-2</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G15-C15)/G15</f>
         <v>0.12945754863716846</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G15-E15)/G15</f>
         <v>9.439747067839141E-2</v>
       </c>
     </row>
@@ -2819,19 +2847,19 @@
         <v>83.553284654316499</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F16-B16)/F16</f>
         <v>8.6835508555873825E-2</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F16-D16)/F16</f>
         <v>5.0438336980875333E-2</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G16-C16)/G16</f>
         <v>0.1205233194790262</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G16-E16)/G16</f>
         <v>8.5469825439682012E-2</v>
       </c>
     </row>
@@ -2858,19 +2886,19 @@
         <v>87.391423351661402</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F17-B17)/F17</f>
         <v>8.1136887349278861E-2</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F17-D17)/F17</f>
         <v>4.4914433926541993E-2</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G17-C17)/G17</f>
         <v>0.11560309344191998</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G17-E17)/G17</f>
         <v>8.073359010609675E-2</v>
       </c>
     </row>
@@ -2897,19 +2925,19 @@
         <v>91.341897813570995</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F18-B18)/F18</f>
         <v>8.0173247521391225E-2</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F18-D18)/F18</f>
         <v>4.4488465572084572E-2</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G18-C18)/G18</f>
         <v>0.11337036023548376</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G18-E18)/G18</f>
         <v>7.8976876835804039E-2</v>
       </c>
     </row>
@@ -2936,19 +2964,19 @@
         <v>95.180145989559904</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F19-B19)/F19</f>
         <v>8.0266214204548464E-2</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F19-D19)/F19</f>
         <v>4.5179973118279176E-2</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G19-C19)/G19</f>
         <v>0.1097504258487134</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G19-E19)/G19</f>
         <v>7.5784145050072721E-2</v>
       </c>
     </row>
@@ -2975,19 +3003,19 @@
         <v>98.585693439722803</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F20-B20)/F20</f>
         <v>7.199650752254487E-2</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F20-D20)/F20</f>
         <v>3.7080916546537487E-2</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G20-C20)/G20</f>
         <v>0.10045790378747832</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G20-E20)/G20</f>
         <v>6.6619133168023176E-2</v>
       </c>
     </row>
@@ -3014,19 +3042,19 @@
         <v>104.06794956821101</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F21-B21)/F21</f>
         <v>6.819418499756727E-2</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F21-D21)/F21</f>
         <v>3.3515091947119095E-2</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G21-C21)/G21</f>
         <v>0.10780280926378173</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G21-E21)/G21</f>
         <v>7.4595008361558982E-2</v>
       </c>
     </row>
@@ -3053,19 +3081,19 @@
         <v>107.47445253914</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F22-B22)/F22</f>
         <v>6.2279438672053752E-2</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F22-D22)/F22</f>
         <v>2.778049851010558E-2</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G22-C22)/G22</f>
         <v>9.6597079660814211E-2</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G22-E22)/G22</f>
         <v>6.3358801819996549E-2</v>
       </c>
     </row>
@@ -3092,19 +3120,19 @@
         <v>110.73762442814601</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F23-B23)/F23</f>
         <v>6.3006867932712721E-2</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F23-D23)/F23</f>
         <v>2.6808109229945289E-2</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G23-C23)/G23</f>
         <v>8.6623990010778015E-2</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G23-E23)/G23</f>
         <v>5.1343203879501802E-2</v>
       </c>
     </row>
@@ -3131,19 +3159,19 @@
         <v>114.263570029847</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F24-B24)/F24</f>
         <v>5.6365563500585393E-2</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F24-D24)/F24</f>
         <v>1.8163662280701293E-2</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G24-C24)/G24</f>
         <v>7.887437487391516E-2</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G24-E24)/G24</f>
         <v>4.1584295227305043E-2</v>
       </c>
     </row>
@@ -3170,19 +3198,19 @@
         <v>119.673284663789</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F25-B25)/F25</f>
         <v>5.7084839417319726E-2</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F25-D25)/F25</f>
         <v>1.7205288748300327E-2</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G25-C25)/G25</f>
         <v>8.6317575630283083E-2</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G25-E25)/G25</f>
         <v>4.7673836978883548E-2</v>
       </c>
     </row>
@@ -3209,19 +3237,19 @@
         <v>123.14890511114901</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F26-B26)/F26</f>
         <v>5.9083956833360797E-2</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F26-D26)/F26</f>
         <v>1.7618029881097286E-2</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G26-C26)/G26</f>
         <v>7.9039533848886706E-2</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G26-E26)/G26</f>
         <v>3.8456737450280866E-2</v>
       </c>
     </row>
@@ -3248,19 +3276,19 @@
         <v>125.572992739425</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F27-B27)/F27</f>
         <v>5.0786518030498794E-2</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F27-D27)/F27</f>
         <v>7.2595041322295294E-3</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G27-C27)/G27</f>
         <v>6.4032953868316173E-2</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G27-E27)/G27</f>
         <v>2.1111169540460422E-2</v>
       </c>
     </row>
@@ -3287,19 +3315,19 @@
         <v>130.262189755836</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F28-B28)/F28</f>
         <v>4.7768603413304231E-2</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F28-D28)/F28</f>
         <v>2.5132382812167306E-3</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G28-C28)/G28</f>
         <v>6.7298189626681382E-2</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G28-E28)/G28</f>
         <v>2.2970516321309982E-2</v>
       </c>
     </row>
@@ -3326,19 +3354,19 @@
         <v>133.19436912299801</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F29-B29)/F29</f>
         <v>4.6413486403667742E-2</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F29-D29)/F29</f>
         <v>5.1822958641181195E-4</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G29-C29)/G29</f>
         <v>5.7826114070561957E-2</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G29-E29)/G29</f>
         <v>1.1459712096301035E-2</v>
       </c>
     </row>
@@ -3365,19 +3393,19 @@
         <v>136.195620401995</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F30-B30)/F30</f>
         <v>4.0454874175443911E-2</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F30-D30)/F30</f>
         <v>8.3734573311580081E-3</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G30-C30)/G30</f>
         <v>4.9390099741470517E-2</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G30-E30)/G30</f>
         <v>1.0178036678849204E-3</v>
       </c>
     </row>
@@ -3404,19 +3432,19 @@
         <v>140.79065687229701</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F31-B31)/F31</f>
         <v>3.4644754028399609E-2</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F31-D31)/F31</f>
         <v>1.607933178394301E-2</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G31-C31)/G31</f>
         <v>5.2344498618346301E-2</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G31-E31)/G31</f>
         <v>2.5545507087392783E-3</v>
       </c>
     </row>
@@ -3443,19 +3471,19 @@
         <v>144.89183805722499</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F32-B32)/F32</f>
         <v>2.9826563433107019E-2</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F32-D32)/F32</f>
         <v>2.27736183074293E-2</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G32-C32)/G32</f>
         <v>5.170807919475072E-2</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G32-E32)/G32</f>
         <v>2.9565541992833925E-4</v>
       </c>
     </row>
@@ -3482,19 +3510,19 @@
         <v>147.61035169424801</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F33-B33)/F33</f>
         <v>2.7423477096952378E-2</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F33-D33)/F33</f>
         <v>2.4628990770162791E-2</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G33-C33)/G33</f>
         <v>4.4715642557013179E-2</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G33-E33)/G33</f>
         <v>6.4131566308629458E-3</v>
       </c>
     </row>
@@ -3521,19 +3549,19 @@
         <v>149.91957533139299</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F34-B34)/F34</f>
         <v>3.0712814922029614E-2</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F34-D34)/F34</f>
         <v>2.0475492727431526E-2</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G34-C34)/G34</f>
         <v>3.5326803302063343E-2</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G34-E34)/G34</f>
         <v>1.5617871538332145E-2</v>
       </c>
     </row>
@@ -3560,19 +3588,19 @@
         <v>153.714542372328</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F35-B35)/F35</f>
         <v>3.8219066160339606E-2</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F35-D35)/F35</f>
         <v>1.1824254033284852E-2</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G35-C35)/G35</f>
         <v>3.6204467072718856E-2</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G35-E35)/G35</f>
         <v>1.3944403662732929E-2</v>
       </c>
     </row>
@@ -3599,19 +3627,19 @@
         <v>157.19528354203899</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F36-B36)/F36</f>
         <v>4.6231916372921553E-2</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F36-D36)/F36</f>
         <v>2.5894898942563412E-3</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G36-C36)/G36</f>
         <v>3.5718150604559552E-2</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G36-E36)/G36</f>
         <v>1.3643643814462444E-2</v>
       </c>
     </row>
@@ -3638,19 +3666,19 @@
         <v>163.01216545115901</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F37-B37)/F37</f>
         <v>5.9912160917424108E-2</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F37-D37)/F37</f>
         <v>1.2599035560688893E-2</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G37-C37)/G37</f>
         <v>4.9121125155448198E-2</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G37-E37)/G37</f>
         <v>1.2647243264844879E-3</v>
       </c>
     </row>
@@ -3677,19 +3705,19 @@
         <v>169.74832113521401</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F38-B38)/F38</f>
         <v>7.0736851198286224E-2</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F38-D38)/F38</f>
         <v>2.4828134556573539E-2</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G38-C38)/G38</f>
         <v>6.7300418935419423E-2</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G38-E38)/G38</f>
         <v>2.1221542051921543E-2</v>
       </c>
     </row>
@@ -3716,19 +3744,19 @@
         <v>174.27328464941701</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F39-B39)/F39</f>
         <v>7.3332829509365191E-2</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F39-D39)/F39</f>
         <v>2.8428382193349835E-2</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G39-C39)/G39</f>
         <v>7.2541996212322546E-2</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G39-E39)/G39</f>
         <v>2.7596224281259036E-2</v>
       </c>
     </row>
@@ -3755,19 +3783,19 @@
         <v>176.37911283197599</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F40-B40)/F40</f>
         <v>7.2824596728179022E-2</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F40-D40)/F40</f>
         <v>2.8788218186316706E-2</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G40-C40)/G40</f>
         <v>6.4938696610954416E-2</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G40-E40)/G40</f>
         <v>2.0524611865037724E-2</v>
       </c>
     </row>
@@ -3794,19 +3822,19 @@
         <v>179.04525546687299</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F41-B41)/F41</f>
         <v>7.3635649455664129E-2</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F41-D41)/F41</f>
         <v>3.0546099619939451E-2</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G41-C41)/G41</f>
         <v>6.0538385688228655E-2</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G41-E41)/G41</f>
         <v>1.6840744866489187E-2</v>
       </c>
     </row>
@@ -3833,19 +3861,19 @@
         <v>182.27737228469601</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F42-B42)/F42</f>
         <v>7.0180519565449254E-2</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F42-D42)/F42</f>
         <v>2.78586187244176E-2</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G42-C42)/G42</f>
         <v>5.927268121968704E-2</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G42-E42)/G42</f>
         <v>1.6454989706628821E-2</v>
       </c>
     </row>
@@ -3872,19 +3900,19 @@
         <v>185.756934309033</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F43-B43)/F43</f>
         <v>7.2890989464936051E-2</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F43-D43)/F43</f>
         <v>3.3882169211752716E-2</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G43-C43)/G43</f>
         <v>5.9381940656621897E-2</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G43-E43)/G43</f>
         <v>1.9805098112313631E-2</v>
       </c>
     </row>
@@ -3911,19 +3939,19 @@
         <v>189.49138687665399</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F44-B44)/F44</f>
         <v>6.8751810709590272E-2</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F44-D44)/F44</f>
         <v>3.2803228839080462E-2</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G44-C44)/G44</f>
         <v>6.0829172354942028E-2</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G44-E44)/G44</f>
         <v>2.4573079301408954E-2</v>
       </c>
     </row>
@@ -3950,19 +3978,19 @@
         <v>192.679708039194</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F45-B45)/F45</f>
         <v>6.5469771969880561E-2</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F45-D45)/F45</f>
         <v>3.2668551416905681E-2</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G45-C45)/G45</f>
         <v>5.9640265309165059E-2</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G45-E45)/G45</f>
         <v>2.6633360053411163E-2</v>
       </c>
     </row>
@@ -3989,19 +4017,19 @@
         <v>195.26540143195299</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F46-B46)/F46</f>
         <v>6.1311854194385125E-2</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F46-D46)/F46</f>
         <v>3.1685153560797458E-2</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G46-C46)/G46</f>
         <v>5.5663396165693615E-2</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G46-E46)/G46</f>
         <v>2.5859171132847237E-2</v>
       </c>
     </row>
@@ -4028,19 +4056,19 @@
         <v>199.45401457329501</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F47-B47)/F47</f>
         <v>5.6333617120756213E-2</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F47-D47)/F47</f>
         <v>2.9920462853862548E-2</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G47-C47)/G47</f>
         <v>5.9490308501068942E-2</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G47-E47)/G47</f>
         <v>3.3165612572135718E-2</v>
       </c>
     </row>
@@ -4067,19 +4095,19 @@
         <v>201.82423355253201</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F48-B48)/F48</f>
         <v>5.2115594789995355E-2</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F48-D48)/F48</f>
         <v>2.9000553003230616E-2</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G48-C48)/G48</f>
         <v>5.4799762964343274E-2</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G48-E48)/G48</f>
         <v>3.1746601682816712E-2</v>
       </c>
     </row>
@@ -4106,19 +4134,19 @@
         <v>204.236496343032</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F49-B49)/F49</f>
         <v>4.895376605099365E-2</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F49-D49)/F49</f>
         <v>2.9220341880340742E-2</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G49-C49)/G49</f>
         <v>5.049547640256926E-2</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G49-E49)/G49</f>
         <v>3.0795163722688781E-2</v>
       </c>
     </row>
@@ -4145,19 +4173,19 @@
         <v>206.708115101479</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F50-B50)/F50</f>
         <v>5.0207583530493274E-2</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F50-D50)/F50</f>
         <v>3.398899572649465E-2</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G50-C50)/G50</f>
         <v>4.6648469070714307E-2</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G50-E50)/G50</f>
         <v>3.0371885005080135E-2</v>
       </c>
     </row>
@@ -4184,19 +4212,19 @@
         <v>209.47243124366599</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F51-B51)/F51</f>
         <v>5.1502140857985025E-2</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F51-D51)/F51</f>
         <v>3.8824978632477525E-2</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G51-C51)/G51</f>
         <v>4.4313619025256233E-2</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G51-E51)/G51</f>
         <v>3.1538428252551945E-2</v>
       </c>
     </row>
@@ -4223,19 +4251,19 @@
         <v>212.33038800025199</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F52-B52)/F52</f>
         <v>5.0402516920238512E-2</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F52-D52)/F52</f>
         <v>4.1267073693229829E-2</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G52-C52)/G52</f>
         <v>4.2546810856787361E-2</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G52-E52)/G52</f>
         <v>3.3336669644495616E-2</v>
       </c>
     </row>
@@ -4262,19 +4290,19 @@
         <v>214.541836312626</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F53-B53)/F53</f>
         <v>4.5456026224417544E-2</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F53-D53)/F53</f>
         <v>3.740105078808998E-2</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G53-C53)/G53</f>
         <v>4.0504461618703864E-2</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G53-E53)/G53</f>
         <v>3.2407834444441286E-2</v>
       </c>
     </row>
@@ -4301,19 +4329,19 @@
         <v>217.10802915559901</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F54-B54)/F54</f>
         <v>4.1721661911658013E-2</v>
       </c>
       <c r="I54" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F54-D54)/F54</f>
         <v>3.4792271479011067E-2</v>
       </c>
       <c r="J54" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G54-C54)/G54</f>
         <v>4.0250560972390673E-2</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G54-E54)/G54</f>
         <v>3.331074020489537E-2</v>
       </c>
     </row>
@@ -4340,19 +4368,19 @@
         <v>221.4306569</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F55-B55)/F55</f>
         <v>3.8667741600461908E-2</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F55-D55)/F55</f>
         <v>3.2905257796013838E-2</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G55-C55)/G55</f>
         <v>4.7792169106828847E-2</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G55-E55)/G55</f>
         <v>4.2083860611082387E-2</v>
       </c>
     </row>
@@ -4379,19 +4407,19 @@
         <v>221.4306569</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F56-B56)/F56</f>
         <v>3.3494011732434367E-2</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F56-D56)/F56</f>
         <v>2.8921769009086766E-2</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G56-C56)/G56</f>
         <v>3.6775206953441469E-2</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G56-E56)/G56</f>
         <v>3.222072769816188E-2</v>
       </c>
     </row>
@@ -4418,19 +4446,19 @@
         <v>221.4306569</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F57-B57)/F57</f>
         <v>2.5493744219461493E-2</v>
       </c>
       <c r="I57" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F57-D57)/F57</f>
         <v>2.214470110220423E-2</v>
       </c>
       <c r="J57" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G57-C57)/G57</f>
         <v>2.5937660529624772E-2</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G57-E57)/G57</f>
         <v>2.2592431283168023E-2</v>
       </c>
     </row>
@@ -4457,19 +4485,19 @@
         <v>221.24671529338099</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F58-B58)/F58</f>
         <v>1.351670654238777E-2</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F58-D58)/F58</f>
         <v>1.1433690529172747E-2</v>
       </c>
       <c r="J58" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G58-C58)/G58</f>
         <v>1.4463219115862432E-2</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G58-E58)/G58</f>
         <v>1.2383077822186072E-2</v>
       </c>
     </row>
@@ -4496,19 +4524,19 @@
         <v>220.80597208947199</v>
       </c>
       <c r="H59" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F59-B59)/F59</f>
         <v>2.2465949035792151E-3</v>
       </c>
       <c r="I59" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F59-D59)/F59</f>
         <v>3.0062540033777181E-3</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G59-C59)/G59</f>
         <v>1.994795592623388E-3</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G59-E59)/G59</f>
         <v>1.2362531995348204E-3</v>
       </c>
     </row>
@@ -4535,19 +4563,19 @@
         <v>220.31199160591899</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F60-B60)/F60</f>
         <v>1.4012666175090059E-2</v>
       </c>
       <c r="I60" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F60-D60)/F60</f>
         <v>1.3379164062650788E-2</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G60-C60)/G60</f>
         <v>1.058021527494275E-2</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G60-E60)/G60</f>
         <v>9.9495646065509442E-3</v>
       </c>
     </row>
@@ -4574,19 +4602,19 @@
         <v>218.234202294401</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F61-B61)/F61</f>
         <v>4.2447747189020578E-2</v>
       </c>
       <c r="I61" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F61-D61)/F61</f>
         <v>4.0320748143396597E-2</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G61-C61)/G61</f>
         <v>3.0445915410535422E-2</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G61-E61)/G61</f>
         <v>2.8344767413011909E-2</v>
       </c>
     </row>
@@ -4613,19 +4641,19 @@
         <v>217.22627739999999</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" si="0"/>
+        <f>ABS(F62-B62)/F62</f>
         <v>4.3220593557979387E-2</v>
       </c>
       <c r="I62" s="6">
-        <f t="shared" si="1"/>
+        <f>ABS(F62-D62)/F62</f>
         <v>3.9580113077679745E-2</v>
       </c>
       <c r="J62" s="6">
-        <f t="shared" si="2"/>
+        <f>ABS(G62-C62)/G62</f>
         <v>4.5323771987937293E-2</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="3"/>
+        <f>ABS(G62-E62)/G62</f>
         <v>4.1674159813227141E-2</v>
       </c>
     </row>
@@ -4651,7 +4679,14 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I64" s="5"/>
+      <c r="H64" s="1">
+        <f>_xlfn.STDEV.S(H2:H62)</f>
+        <v>2.0874042796618891E-2</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" ref="I64" si="0">_xlfn.STDEV.S(I2:I62)</f>
+        <v>1.3526180502805242E-2</v>
+      </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>

--- a/v1.0_Combustion_Model/Validation.xlsx
+++ b/v1.0_Combustion_Model/Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab0ee2475784414c/Masaüstü/GitHub/Virtual-Engine-Test-Bench/v1.0_Combustion_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE579E2-11C9-4DFB-BC12-983CEBFE960F}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DBBD979-63BB-4EDE-AC3A-D85F00A9E4B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1016,43 +1015,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C5F-45C6-AF55-841E274120B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>v1.1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E78-45A2-BB78-8C8BC009643D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2230,7 +2192,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
